--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sostdc1-Lrp4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sostdc1-Lrp4.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.980366</v>
+        <v>1.6164125</v>
       </c>
       <c r="H2">
-        <v>1.960732</v>
+        <v>3.232825</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.0305975</v>
+        <v>0.690242</v>
       </c>
       <c r="N2">
-        <v>2.061195</v>
+        <v>1.380484</v>
       </c>
       <c r="O2">
-        <v>0.09953130389913813</v>
+        <v>0.07603312339759918</v>
       </c>
       <c r="P2">
-        <v>0.0750890382124423</v>
+        <v>0.05971740901392503</v>
       </c>
       <c r="Q2">
-        <v>1.010362748685</v>
+        <v>1.115715796825</v>
       </c>
       <c r="R2">
-        <v>4.041450994739999</v>
+        <v>4.4628631873</v>
       </c>
       <c r="S2">
-        <v>0.09953130389913813</v>
+        <v>0.07603312339759918</v>
       </c>
       <c r="T2">
-        <v>0.0750890382124423</v>
+        <v>0.05971740901392503</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.980366</v>
+        <v>1.6164125</v>
       </c>
       <c r="H3">
-        <v>1.960732</v>
+        <v>3.232825</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>4.575656</v>
       </c>
       <c r="O3">
-        <v>0.147299991145562</v>
+        <v>0.1680093924898635</v>
       </c>
       <c r="P3">
-        <v>0.1666904917928634</v>
+        <v>0.1979351595954898</v>
       </c>
       <c r="Q3">
-        <v>1.495272523365333</v>
+        <v>2.465382518033334</v>
       </c>
       <c r="R3">
-        <v>8.971635140192001</v>
+        <v>14.7922951082</v>
       </c>
       <c r="S3">
-        <v>0.147299991145562</v>
+        <v>0.1680093924898635</v>
       </c>
       <c r="T3">
-        <v>0.1666904917928634</v>
+        <v>0.1979351595954898</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.980366</v>
+        <v>1.6164125</v>
       </c>
       <c r="H4">
-        <v>1.960732</v>
+        <v>3.232825</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.729477333333334</v>
+        <v>1.488848666666667</v>
       </c>
       <c r="N4">
-        <v>5.188432000000001</v>
+        <v>4.466546</v>
       </c>
       <c r="O4">
-        <v>0.1670265395080728</v>
+        <v>0.1640030806485518</v>
       </c>
       <c r="P4">
-        <v>0.189013833582295</v>
+        <v>0.1932152450600737</v>
       </c>
       <c r="Q4">
-        <v>1.695520775370667</v>
+        <v>2.406593595408333</v>
       </c>
       <c r="R4">
-        <v>10.173124652224</v>
+        <v>14.43956157245</v>
       </c>
       <c r="S4">
-        <v>0.1670265395080728</v>
+        <v>0.1640030806485518</v>
       </c>
       <c r="T4">
-        <v>0.189013833582295</v>
+        <v>0.1932152450600737</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.980366</v>
+        <v>1.6164125</v>
       </c>
       <c r="H5">
-        <v>1.960732</v>
+        <v>3.232825</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.582909</v>
+        <v>3.427339</v>
       </c>
       <c r="N5">
-        <v>5.165818</v>
+        <v>6.854678</v>
       </c>
       <c r="O5">
-        <v>0.2494478209221534</v>
+        <v>0.3775361237253082</v>
       </c>
       <c r="P5">
-        <v>0.1881900088058249</v>
+        <v>0.296521806688635</v>
       </c>
       <c r="Q5">
-        <v>2.532196164694</v>
+        <v>5.5399936013375</v>
       </c>
       <c r="R5">
-        <v>10.128784658776</v>
+        <v>22.15997440535</v>
       </c>
       <c r="S5">
-        <v>0.2494478209221534</v>
+        <v>0.3775361237253082</v>
       </c>
       <c r="T5">
-        <v>0.1881900088058249</v>
+        <v>0.296521806688635</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.980366</v>
+        <v>1.6164125</v>
       </c>
       <c r="H6">
-        <v>1.960732</v>
+        <v>3.232825</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5748966666666666</v>
+        <v>1.086196666666667</v>
       </c>
       <c r="N6">
-        <v>1.72469</v>
+        <v>3.25859</v>
       </c>
       <c r="O6">
-        <v>0.05552139883960665</v>
+        <v>0.1196492319950504</v>
       </c>
       <c r="P6">
-        <v>0.06283020932741304</v>
+        <v>0.1409611062777156</v>
       </c>
       <c r="Q6">
-        <v>0.5636091455133333</v>
+        <v>1.755741869458333</v>
       </c>
       <c r="R6">
-        <v>3.38165487308</v>
+        <v>10.53445121675</v>
       </c>
       <c r="S6">
-        <v>0.05552139883960665</v>
+        <v>0.1196492319950504</v>
       </c>
       <c r="T6">
-        <v>0.06283020932741304</v>
+        <v>0.1409611062777156</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.980366</v>
+        <v>1.6164125</v>
       </c>
       <c r="H7">
-        <v>1.960732</v>
+        <v>3.232825</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.911407000000001</v>
+        <v>0.8603300000000002</v>
       </c>
       <c r="N7">
-        <v>8.734221000000002</v>
+        <v>2.58099</v>
       </c>
       <c r="O7">
-        <v>0.2811729456854671</v>
+        <v>0.09476904774362691</v>
       </c>
       <c r="P7">
-        <v>0.3181864182791614</v>
+        <v>0.111649273364161</v>
       </c>
       <c r="Q7">
-        <v>2.854244434962</v>
+        <v>1.390648166125</v>
       </c>
       <c r="R7">
-        <v>17.125466609772</v>
+        <v>8.343888996750001</v>
       </c>
       <c r="S7">
-        <v>0.2811729456854671</v>
+        <v>0.09476904774362691</v>
       </c>
       <c r="T7">
-        <v>0.3181864182791614</v>
+        <v>0.111649273364161</v>
       </c>
     </row>
   </sheetData>
